--- a/sweetest/element/UT-Elements.xlsx
+++ b/sweetest/element/UT-Elements.xlsx
@@ -17,7 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="产品管理系统登录页" vbProcedure="false">elements!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="产品管理系统首页" vbProcedure="false">elements!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="通用" vbProcedure="false">elements!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="页面" vbProcedure="false">elements!$A$23:$A$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="页面" vbProcedure="false">elements!$A$37:$A$37</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="244">
   <si>
     <t xml:space="preserve">page</t>
   </si>
@@ -157,7 +157,22 @@
     <t xml:space="preserve">优投平台链接</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dsp-admin-preview.umlife.com/</t>
+    <t xml:space="preserve">https://youcloud.com/login/ut/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优投平台首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据概览</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="数据概览"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="产品管理"]</t>
   </si>
   <si>
     <t xml:space="preserve">投放管理</t>
@@ -169,40 +184,22 @@
     <t xml:space="preserve">广告管理</t>
   </si>
   <si>
-    <t xml:space="preserve">广告订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//a[@target="ExPlans"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建广告订单按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[text()="新建广告订单"]/..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优投平台登录页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
+    <t xml:space="preserve">监测配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定向管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="定向管理"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内容定向包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精准人群包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账号管理</t>
   </si>
   <si>
     <r>
@@ -211,9 +208,18 @@
         <color rgb="FF262626"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">//button</t>
+      <t xml:space="preserve">//span[text()="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">账号管理</t>
     </r>
     <r>
       <rPr>
@@ -223,35 +229,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[@class="btn-form l"]</t>
+      <t xml:space="preserve">"]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">用户图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="user-cart"]/div[5]/div[1]/div[1]/img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退出登录按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[text()="退出登录"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选择服务按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图层_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有米优投服务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//div[text()="有米优投"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息关闭图标</t>
+    <t xml:space="preserve">财务管理</t>
   </si>
   <si>
     <r>
@@ -262,7 +244,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">//i[</t>
+      <t xml:space="preserve">//span[text()="</t>
     </r>
     <r>
       <rPr>
@@ -271,7 +253,7 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">@class="icon s-notification__closeBtn icon-sf_wrong-fill"</t>
+      <t xml:space="preserve">财务管理</t>
     </r>
     <r>
       <rPr>
@@ -281,45 +263,411 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]</t>
+      <t xml:space="preserve">"]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">广告投放页</t>
+    <t xml:space="preserve">推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@target="ExCampaigns"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@target="ExGroups"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@target="ExPlans"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@target="ExIdeas"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告订单按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="新建广告订单"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="user-cart"]/div[5]/div[1]/div[1]/img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退出登录按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="退出登录"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息关闭图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//i[@class="icon s-notification__closeBtn icon-sf_wrong-fill"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优投平台登录页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()="登录"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入优投平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login-press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择服务按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图层_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有米优投服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[text()="有米优投"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建产品按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="新建产品"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[2]/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账户余额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[2]/span/../a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入产品名称')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入与营业执照一致的名称')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入联系人名称')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入联系人电话')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[contains(@placeholder,'请输入联系人地址')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网站网址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[contains(@placeholder,'请输入产品官网地址')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一级分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请选择一级分类')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="其他"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资质1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[3]/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资质2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[2]/td[3]/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上传图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="图片上传"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()="确认"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'选择日期')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class="question-tips"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存并提审按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@class="btn save-btn  btn-larger btn-primary"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品管理面包屑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[text()="产品管理"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建推广计划按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="新建推广计划"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class="search-confirm"]/button[text()="查询"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[2]/div/div/div/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在投订单/总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[5]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[3]/div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="编辑"][1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="删除"][1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建推广计划</t>
   </si>
   <si>
     <t xml:space="preserve">投放产品</t>
   </si>
   <si>
-    <t xml:space="preserve">//input[contains(@placeholder,'请选择投放产品 (可输入搜索)')]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">标的物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[contains(@placeholder,'请选择标的物')]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//input[contains(@placeholder,'请选择广告组')]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一步:投放媒体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[text()="下一步 : 投放媒体"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品搜索框</t>
+    <t xml:space="preserve">//input[contains(@placeholder,'请选择投放产品')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索产品名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'输入产品名称搜索')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="#"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入推广计划名称, 长度不超过50个字符')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一步:推广标的物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="下一步：推广标的物"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加标的物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="添加标的物"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入渠道号,长度不超过50个字符')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itunes链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'输入产品的itunes链接')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="确认"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存并返回列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class="save-btn-content"]/button[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class="save-btn-content"]/button[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告组按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="新建广告组"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告组窗体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//h4[text()="新建广告组"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑广告组窗体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//h4[text()="修改广告组名"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class="modal-card-body"]//input[contains(@placeholder,'搜索产品名称')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/html/body/div[23]/div[1]/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/html/body/div[23]//span[text()="#"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'搜索推广计划')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索推广计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'搜索推广计划')]/../../div[2]/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告组名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@label='广告组名']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确定按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class="flex-box group-modal-btns"]//span[text()="确定"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[1]/div/div/div/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推广计划列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告组ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()="查询"]</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
@@ -331,25 +679,92 @@
         <color rgb="FF262626"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"select__filter"</t>
+      <t xml:space="preserve">"ad-name-box"</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]/input</t>
+      <t xml:space="preserve">][1]//a</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">产品名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@class="select__content"][1]/ul/li[1]/span</t>
+    <t xml:space="preserve">投放媒体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计划出价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[12]/span[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每日预算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[13]/span[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在投创意/总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="复制"][1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建广告订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请选择投放产品 (可输入搜索)')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品搜索框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class="select__filter"]/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标的物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请选择标的物')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请选择广告组')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一步:投放媒体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="下一步 : 投放媒体"]/..</t>
   </si>
   <si>
     <r>
@@ -423,18 +838,12 @@
     <t xml:space="preserve">下一步:基本信息</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[text()="下一步 : 基本信息"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每日预算</t>
+    <t xml:space="preserve">//span[text()="下一步 : 基本信息"]/..</t>
   </si>
   <si>
     <t xml:space="preserve">//input[contains(@placeholder,'请输入不小于100的整数')]</t>
   </si>
   <si>
-    <t xml:space="preserve">计划出价</t>
-  </si>
-  <si>
     <t xml:space="preserve">//input[contains(@placeholder,'请输入计划出价值')]</t>
   </si>
   <si>
@@ -442,9 +851,6 @@
   </si>
   <si>
     <t xml:space="preserve">//input[contains(@placeholder,'请输入计划名称')]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保存并返回列表</t>
   </si>
   <si>
     <t xml:space="preserve">//span[text()="
@@ -452,84 +858,47 @@
          "]</t>
   </si>
   <si>
-    <t xml:space="preserve">广告订单页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//button[text()="查询"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告订单列名</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">//div[@class=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"ad-name-box"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">][1]//a</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">投放媒体列名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="ex-plans-data"]/tbody/tr[1]/td[10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告位列名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="ex-plans-data"]/tbody/tr[1]/td[11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计划出价列名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="ex-plans-data"]/tbody/tr[1]/td[12]/span[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每日预算列名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="ex-plans-data"]/tbody/tr[1]/td[13]/span[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告订单编辑图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id="table-wrapper"]/div[2]/table/tbody/tr[1]/td[3]/div/span/i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告订单复制链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[text()="复制"][1]</t>
+    <t xml:space="preserve">设置广告创意按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="设置广告创意"]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//tbody/tr[1]/td[3]/div/div/div/span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="编辑"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置创意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创意名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@label='创意名称']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上传图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[contains(@placeholder,'请输入Card标题')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[contains(@placeholder,'请输入Card描述')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存并自动提审</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[text()="保存并自动提审
+            "]</t>
   </si>
 </sst>
 </file>
@@ -686,7 +1055,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,11 +1084,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,10 +1121,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,12 +1201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1101,74 +1476,74 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>47</v>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1176,13 +1551,13 @@
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1190,27 +1565,27 @@
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>57</v>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>58</v>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1218,27 +1593,27 @@
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>62</v>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1246,27 +1621,27 @@
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>66</v>
+      <c r="D30" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1274,542 +1649,1796 @@
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>68</v>
+      <c r="D31" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>71</v>
+    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>73</v>
+    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>75</v>
+    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>77</v>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>79</v>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>81</v>
+    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>83</v>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>85</v>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>87</v>
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>89</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>91</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>93</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>95</v>
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="C47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="7" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="B49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="7" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
-      <c r="B52" s="7" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="3" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
+      <c r="B55" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="C55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+      <c r="B66" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3"/>
+      <c r="B103" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="12"/>
+      <c r="B104" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="15"/>
+    </row>
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15"/>
+      <c r="B105" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="15"/>
+    </row>
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15"/>
+      <c r="B106" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="14"/>
+      <c r="F106" s="15"/>
+    </row>
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="15"/>
+      <c r="B107" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="15"/>
+    </row>
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="15"/>
+      <c r="B108" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="15"/>
+    </row>
+    <row r="109" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15"/>
+      <c r="B109" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="15"/>
+    </row>
+    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15"/>
+      <c r="B110" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15"/>
+      <c r="B111" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E111" s="14"/>
+      <c r="F111" s="15"/>
+    </row>
+    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="15"/>
+      <c r="B112" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="15"/>
+    </row>
+    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="15"/>
+      <c r="B113" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="15"/>
+    </row>
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15"/>
+      <c r="B114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="15"/>
+    </row>
+    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8"/>
+      <c r="B118" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="12"/>
+      <c r="B131" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="12"/>
+      <c r="B132" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="15"/>
+    </row>
+    <row r="133" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="12"/>
+      <c r="B133" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E133" s="14"/>
+      <c r="F133" s="15"/>
+    </row>
+    <row r="134" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="12"/>
+      <c r="B134" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="15"/>
+    </row>
+    <row r="135" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="12"/>
+      <c r="B135" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" s="14"/>
+      <c r="F135" s="15"/>
+    </row>
+    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="12"/>
+      <c r="B136" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E136" s="14"/>
+      <c r="F136" s="15"/>
+    </row>
+    <row r="137" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E137" s="14"/>
+      <c r="F137" s="15"/>
+    </row>
+    <row r="138" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="15"/>
+      <c r="B138" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="14"/>
+      <c r="F138" s="15"/>
+    </row>
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="15"/>
+      <c r="B139" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E139" s="16"/>
+      <c r="F139" s="15"/>
+    </row>
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="15"/>
+      <c r="B140" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E140" s="14"/>
+      <c r="F140" s="15"/>
+    </row>
+    <row r="141" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="15"/>
+      <c r="B141" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="15"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="15"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="15"/>
+    </row>
+    <row r="143" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="15"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="15"/>
+    </row>
+    <row r="144" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="15"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="15"/>
+    </row>
+    <row r="145" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="15"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="15"/>
+    </row>
+    <row r="146" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="15"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="15"/>
+    </row>
+    <row r="147" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="15"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="15"/>
+    </row>
+    <row r="148" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="15"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="15"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="15"/>
+    </row>
+    <row r="150" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="15"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="15"/>
+    </row>
+    <row r="151" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="15"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="15"/>
+    </row>
+    <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="15"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="15"/>
+    </row>
+    <row r="153" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="15"/>
+    </row>
+    <row r="154" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="15"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="15"/>
+    </row>
+    <row r="155" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="15"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="15"/>
+    </row>
+    <row r="156" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="15"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="15"/>
+    </row>
+    <row r="157" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="15"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="15"/>
+    </row>
+    <row r="158" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="15"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="15"/>
+    </row>
+    <row r="159" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="15"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="15"/>
+    </row>
+    <row r="160" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="15"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="15"/>
+    </row>
+    <row r="161" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="15"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="15"/>
+    </row>
+    <row r="162" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="15"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="15"/>
+    </row>
+    <row r="163" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="15"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="15"/>
+    </row>
+    <row r="164" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="15"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="15"/>
+    </row>
+    <row r="165" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="15"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="15"/>
+    </row>
+    <row r="166" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="15"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="15"/>
+    </row>
+    <row r="167" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="15"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="15"/>
+    </row>
+    <row r="168" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="15"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="15"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" display="https://dsp-admin-preview.umlife.com/"/>
+    <hyperlink ref="D18" r:id="rId1" display="https://youcloud.com/login/ut/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
